--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1615624.729300358</v>
+        <v>-1618521.793965839</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365403</v>
+        <v>10077562.50365405</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>64.7044798814387</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>32.12982432394401</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>252.8200348618693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>217.868871192146</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>375.2554594835383</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>105.3540670460876</v>
+        <v>111.6943500844843</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>151.6262622616294</v>
       </c>
       <c r="H8" t="n">
-        <v>181.6121156909796</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.26583888007739</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>48.10637266807415</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>363.7358473936652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>347.7039243400708</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.39624782296497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1579,7 +1579,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>97.04626210378969</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444133</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695445</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128527</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364131</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U15" t="n">
         <v>225.7478006422472</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856585</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012214</v>
+        <v>66.37524671012093</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016443</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U16" t="n">
-        <v>224.7837165195505</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>39.96816871823793</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>71.05846343488193</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>41.74133133758758</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>281.6778446725264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.4157347120542</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>107.9721668030647</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2893995353463</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002299</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002299</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.637173372437</v>
+        <v>1376.191244984137</v>
       </c>
       <c r="C2" t="n">
-        <v>565.6746564320254</v>
+        <v>1376.191244984137</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>1017.925546377387</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2433.488545858902</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2102.425658515331</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>1749.657003245217</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>1376.191244984137</v>
       </c>
       <c r="Y2" t="n">
-        <v>934.637173372437</v>
+        <v>1376.191244984137</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.6822058285749</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V4" t="n">
-        <v>517.6822058285749</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W4" t="n">
-        <v>517.6822058285749</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X4" t="n">
-        <v>517.6822058285749</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.6822058285749</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1165.659149439633</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>754.6732446500255</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4604,13 +4604,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1591.868758816787</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.4025473335336</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1371.274936282423</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="C8" t="n">
-        <v>1002.312419342012</v>
+        <v>1362.140678483279</v>
       </c>
       <c r="D8" t="n">
-        <v>644.0467207352613</v>
+        <v>1003.874979876529</v>
       </c>
       <c r="E8" t="n">
-        <v>258.258468137017</v>
+        <v>618.0867272782846</v>
       </c>
       <c r="F8" t="n">
-        <v>251.3129673878136</v>
+        <v>207.100822488677</v>
       </c>
       <c r="G8" t="n">
-        <v>237.3895633264045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.274936282423</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4896,34 +4896,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>396.3638799638589</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>249.4739324659486</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.47413220428101</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.47413220428101</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.47413220428101</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>424.8522003762303</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.229508727735</v>
       </c>
       <c r="C11" t="n">
         <v>1949.266991787324</v>
@@ -5039,19 +5039,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J11" t="n">
-        <v>422.5594898197622</v>
+        <v>373.3125385470848</v>
       </c>
       <c r="K11" t="n">
-        <v>892.189873607444</v>
+        <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
         <v>3652.861230428501</v>
@@ -5078,13 +5078,13 @@
         <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.434439028749</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.416110689545</v>
+        <v>3094.968680767669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.829348791857</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="N12" t="n">
-        <v>1684.801683606264</v>
+        <v>1356.759402180614</v>
       </c>
       <c r="O12" t="n">
         <v>1903.635877180809</v>
@@ -5227,22 +5227,22 @@
         <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.672496643873</v>
+        <v>2080.324751551925</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.596282958599</v>
+        <v>1791.248537866652</v>
       </c>
       <c r="V13" t="n">
-        <v>1669.596282958599</v>
+        <v>1791.248537866652</v>
       </c>
       <c r="W13" t="n">
-        <v>1380.179112921639</v>
+        <v>1501.831367829692</v>
       </c>
       <c r="X13" t="n">
-        <v>1380.179112921639</v>
+        <v>1501.831367829692</v>
       </c>
       <c r="Y13" t="n">
-        <v>1159.386533778109</v>
+        <v>1281.038788686162</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5267,58 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362682</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192738</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111975</v>
+        <v>378.1925803111307</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611076038</v>
+        <v>852.8523611075447</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332406</v>
+        <v>1478.611553332357</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014794</v>
+        <v>2206.558663014755</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355948</v>
+        <v>2950.89852635592</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068017</v>
+        <v>3640.422291067999</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694701</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778464</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967194</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354681</v>
       </c>
       <c r="E15" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300127</v>
       </c>
       <c r="F15" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568976</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028055</v>
       </c>
       <c r="H15" t="n">
         <v>93.81666304797187</v>
@@ -5355,40 +5355,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756254</v>
+        <v>243.4633055756284</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746844</v>
+        <v>577.3880777468522</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.7136839626</v>
+        <v>1072.713683962615</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636224</v>
+        <v>1072.713683962615</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190828</v>
+        <v>1344.266747951526</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190828</v>
+        <v>1896.176478190817</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685894</v>
+        <v>2319.799627685889</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.061288060774</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.850501963387</v>
       </c>
       <c r="T15" t="n">
         <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
         <v>1781.463605996603</v>
@@ -5397,10 +5397,10 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.614450297914</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832234</v>
+        <v>701.4712640439266</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553165</v>
+        <v>532.5350811160197</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429807</v>
+        <v>382.418441703684</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429807</v>
+        <v>382.418441703684</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429807</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578606</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000586</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782969</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038374</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797799</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570828</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279815</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853376</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580277</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832652</v>
+        <v>2379.91737983268</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487557</v>
+        <v>2197.062545487585</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510498</v>
+        <v>1977.461080510526</v>
       </c>
       <c r="U16" t="n">
-        <v>1750.406821399841</v>
+        <v>1688.385853854724</v>
       </c>
       <c r="V16" t="n">
-        <v>1495.722333193954</v>
+        <v>1433.701365648837</v>
       </c>
       <c r="W16" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611876</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1103.912308017696</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134631</v>
+        <v>883.1197288741663</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,28 +5513,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5604,7 +5604,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190824</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408905</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.286319795768</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U19" t="n">
-        <v>2125.286319795768</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V19" t="n">
-        <v>1870.601831589881</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W19" t="n">
-        <v>1581.18466155292</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1353.195110654903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
         <v>1896.176478190824</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876693</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753335</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8695714929404</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>135.97962399503</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1759.983708831312</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6075,7 +6075,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
         <v>1896.176478190824</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>550.637687073287</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.8158034133954</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6458,28 +6458,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942663</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580122</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
         <v>2319.799627685893</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942663</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580122</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,13 +7023,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954152</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,13 +7117,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7263,10 +7263,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580114</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,10 +7594,10 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492685</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.91038304567337e-11</v>
+        <v>-4.581579560181126e-11</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>-1.477928890381008e-12</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>219.0943431843453</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.4179037941843</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>22.21132720219183</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.537044377342227</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.4357323589723</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4357323589721</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856504</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>61.40075786969365</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>185.7414866707992</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>146.3469868924063</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>4.506629716717782</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.41624546988314</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>144.1654765207633</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1123924.350278142</v>
+        <v>1123924.350278141</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99554.90470603394</v>
+        <v>99554.90470603385</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>120984.0942579184</v>
@@ -26326,7 +26326,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="G2" t="n">
-        <v>121071.9899535008</v>
+        <v>121071.9899535009</v>
       </c>
       <c r="H2" t="n">
         <v>121071.9899535009</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>936391.4095185974</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614946396</v>
+        <v>7852.637614958258</v>
       </c>
       <c r="G3" t="n">
-        <v>4.596281996782637e-09</v>
+        <v>-5.404536405306621e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111258.641473184</v>
+        <v>111258.6414731835</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,37 +26427,37 @@
         <v>5759.938886718171</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670842</v>
+        <v>5067.592601669799</v>
       </c>
       <c r="G4" t="n">
         <v>5067.59260167043</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670416</v>
+        <v>5067.592601670427</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="M4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="L4" t="n">
-        <v>13058.45186476388</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13058.45186476389</v>
-      </c>
       <c r="N4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>100905.9587784758</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239073</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-684530.6940451039</v>
+        <v>-684924.0500579971</v>
       </c>
       <c r="C6" t="n">
         <v>-160767.3185114985</v>
@@ -26528,40 +26528,40 @@
         <v>-160767.3185114985</v>
       </c>
       <c r="E6" t="n">
-        <v>-922073.212925873</v>
+        <v>-922109.4157795684</v>
       </c>
       <c r="F6" t="n">
-        <v>7029.229912976662</v>
+        <v>6994.491987529881</v>
       </c>
       <c r="G6" t="n">
-        <v>14881.8675279187</v>
+        <v>14847.12960249475</v>
       </c>
       <c r="H6" t="n">
-        <v>14881.86752792334</v>
+        <v>14847.12960248762</v>
       </c>
       <c r="I6" t="n">
-        <v>14881.86752792336</v>
+        <v>14847.12960248768</v>
       </c>
       <c r="J6" t="n">
-        <v>-161541.3516646696</v>
+        <v>-161576.0895901053</v>
       </c>
       <c r="K6" t="n">
         <v>-12494.02023266867</v>
       </c>
       <c r="L6" t="n">
-        <v>6933.697760963114</v>
+        <v>6933.697760963172</v>
       </c>
       <c r="M6" t="n">
         <v>-117274.8129470953</v>
       </c>
       <c r="N6" t="n">
-        <v>6933.69776096323</v>
+        <v>6933.697760963172</v>
       </c>
       <c r="O6" t="n">
-        <v>6933.697760963216</v>
+        <v>6933.697760963172</v>
       </c>
       <c r="P6" t="n">
-        <v>-12494.02023266857</v>
+        <v>-12494.0202326686</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26747,7 +26747,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341683</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625282463</v>
+        <v>9.93445162529747</v>
       </c>
       <c r="G3" t="n">
-        <v>5.911715561524034e-12</v>
+        <v>-7.498811657278503e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>317.2258901908231</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>199.7192000412218</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>21.58400552755543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>195.915298828649</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.98247917251524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>180.9278071958901</v>
+        <v>174.5875241574934</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>262.1579077591656</v>
       </c>
       <c r="H8" t="n">
-        <v>142.3106570733775</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>18.93412030845961</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>238.4166256685168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>439.1579551075604</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>363.6408844187321</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348471</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135379</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663314</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817623</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162525</v>
+        <v>867.846407116262</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175741</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159492</v>
       </c>
       <c r="O14" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460091</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236474</v>
+        <v>790.820449923656</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669263</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043749</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292909</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651544</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078776</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659437</v>
+        <v>2.942437868659469</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521119</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420743</v>
+        <v>277.9958514420774</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422566</v>
+        <v>475.1391886422618</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473116</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972287095</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071753</v>
+        <v>405.6377363145558</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437291</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214675</v>
+        <v>561.8765786214736</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485275</v>
+        <v>375.5996128485316</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742476</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937742</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275968</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189893</v>
+        <v>2.46684106618992</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121585</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869325</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796273</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355197</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588178</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392071</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106814</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920081</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417335</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515941</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670486</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532795</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099329</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467231</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214699</v>
@@ -32558,10 +32558,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32795,10 +32795,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>339.9772972286967</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>526.2989357561996</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>225.4828684302374</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>332.0634613856469</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380625</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119352</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>221.0446399742877</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236318705</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396691</v>
+        <v>285.7087110395993</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367818</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462653</v>
+        <v>632.0799921462747</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902908</v>
+        <v>735.3001107903013</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193584</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243223</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683866</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924767</v>
       </c>
       <c r="R14" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902428</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754076</v>
+        <v>151.1582247754107</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678976</v>
+        <v>337.2977496679028</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674375</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066912</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238421</v>
+        <v>274.2960242312225</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992846</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071373</v>
+        <v>427.9021712071434</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.617838762506</v>
+        <v>235.6178387625101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295455</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096338</v>
+        <v>264.3325884096369</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191339</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010477</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899099</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060478</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306627</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998997</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071396</v>
@@ -36121,10 +36121,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36206,10 +36206,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>197.8432633066783</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>394.9572236728663</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88662398579301</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
